--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB99F45-4EFC-4657-8BE4-2AD62C96AAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C82D61-DB90-4C66-8F2D-8C64FD201399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ProdData" sheetId="4" r:id="rId4"/>
     <sheet name="DataTwo" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="548">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1648,6 +1648,33 @@
   </si>
   <si>
     <t>42355451</t>
+  </si>
+  <si>
+    <t>IO_364_VerifyHomeIconHighlighted</t>
+  </si>
+  <si>
+    <t>IO_365_VerifyProductsProgressBarSelectedOnceStartAsNewMember</t>
+  </si>
+  <si>
+    <t>IO_376_VerifyInformationProgressBarSelectedOnceStartAsNewMember</t>
+  </si>
+  <si>
+    <t>C28333_VerifyInformationProgressBarHighlightedOnCreditCardInfoPage</t>
+  </si>
+  <si>
+    <t>C28334_VerifyInformationProgressBarHighlightedForPersonalLoan</t>
+  </si>
+  <si>
+    <t>C28335_VerifyInformationProgressBarHighlightedForVehicleLoan</t>
+  </si>
+  <si>
+    <t>C28339_VerifyInformationProgressTabHighLightedOnJointOwnerPage</t>
+  </si>
+  <si>
+    <t>56875676</t>
+  </si>
+  <si>
+    <t>01/08/1892</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1837,7 +1864,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2039,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,6 +4092,104 @@
         <v>5</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>539</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>540</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>541</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>542</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>543</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>544</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>545</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4201,19 +4326,26 @@
     <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
     <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B134" r:id="rId132" xr:uid="{3FC154CB-CBC9-42FC-8547-6FFA9A2A7AA7}"/>
+    <hyperlink ref="B135" r:id="rId133" xr:uid="{CEDFB980-178F-48C3-A8F0-ACB55C53284F}"/>
+    <hyperlink ref="B136" r:id="rId134" xr:uid="{4758C07C-1D3D-4A49-B96C-71A47CF9CE8B}"/>
+    <hyperlink ref="B137" r:id="rId135" xr:uid="{227D6EC0-3E69-4C63-8490-D680936C2EBA}"/>
+    <hyperlink ref="B138" r:id="rId136" xr:uid="{D6EB93AB-F106-42A8-A3F8-56FE65DF5AE6}"/>
+    <hyperlink ref="B139" r:id="rId137" xr:uid="{AF7E2B62-F415-4524-A30C-C8E451CA243F}"/>
+    <hyperlink ref="B140" r:id="rId138" xr:uid="{78CA4D0A-A9AC-4D8D-B4A9-8DA1B2285D29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId132"/>
+  <pageSetup orientation="portrait" r:id="rId139"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD101"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,7 +4363,7 @@
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -9195,6 +9327,70 @@
         <v>85</v>
       </c>
       <c r="Z101" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>545</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y102" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z102" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -10395,7 +10591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C82D61-DB90-4C66-8F2D-8C64FD201399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8D109-5A0F-49A0-8DA8-335D8F0DFBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="DNA_Upgrade" sheetId="3" r:id="rId3"/>
-    <sheet name="ProdData" sheetId="4" r:id="rId4"/>
-    <sheet name="DataTwo" sheetId="5" r:id="rId5"/>
+    <sheet name="ApplicationStatusCenter" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="DNA_Upgrade" sheetId="3" r:id="rId4"/>
+    <sheet name="ProdData" sheetId="4" r:id="rId5"/>
+    <sheet name="DataTwo" sheetId="5" r:id="rId6"/>
+    <sheet name="HomePage" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="589">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1326,12 +1328,6 @@
     <t>35688741</t>
   </si>
   <si>
-    <t>65211025</t>
-  </si>
-  <si>
-    <t>45688741</t>
-  </si>
-  <si>
     <t>C23943_NonMemberUserCanAddMultipleJointOwnerToTheApplicationForm</t>
   </si>
   <si>
@@ -1647,9 +1643,6 @@
     <t>C23909_VerifyApplicationSubmittion</t>
   </si>
   <si>
-    <t>42355451</t>
-  </si>
-  <si>
     <t>IO_364_VerifyHomeIconHighlighted</t>
   </si>
   <si>
@@ -1671,17 +1664,149 @@
     <t>C28339_VerifyInformationProgressTabHighLightedOnJointOwnerPage</t>
   </si>
   <si>
-    <t>56875676</t>
-  </si>
-  <si>
-    <t>01/08/1892</t>
+    <t>56875659</t>
+  </si>
+  <si>
+    <t>TestSe</t>
+  </si>
+  <si>
+    <t>5467893456</t>
+  </si>
+  <si>
+    <t>d6@tdecu.org</t>
+  </si>
+  <si>
+    <t>C28350_VerifyInformationProgressTabHighLightedOnAccountRolePage</t>
+  </si>
+  <si>
+    <t>C28352_VerifyVerificationStepHighlightedWhenOnMemberEligibilityPage</t>
+  </si>
+  <si>
+    <t>C28353_VerifyInformationStepOnAccountSummaryPage</t>
+  </si>
+  <si>
+    <t>56875660</t>
+  </si>
+  <si>
+    <t>C28340_VerifyInformationStepHighlightedWhenUserOnLookupJointOwnerPage</t>
+  </si>
+  <si>
+    <t>56875661</t>
+  </si>
+  <si>
+    <t>C28342_VerifyTheInformationPageIsHighLightedWhenUserOnBeneficiariesPage</t>
+  </si>
+  <si>
+    <t>56875662</t>
+  </si>
+  <si>
+    <t>C28343_VerifyInformationStepHighlightedWhenUserOnLookupBeneficiariesPage</t>
+  </si>
+  <si>
+    <t>56875663</t>
+  </si>
+  <si>
+    <t>PromoCode</t>
+  </si>
+  <si>
+    <t>BankRate</t>
+  </si>
+  <si>
+    <t>42355456</t>
+  </si>
+  <si>
+    <t>25211025</t>
+  </si>
+  <si>
+    <t>Application_Url</t>
+  </si>
+  <si>
+    <t>https://forms-preprod.fivision.com/tdecu/sc/</t>
+  </si>
+  <si>
+    <t>C28325_VerifyThatUserShouldLandingOnApplicationStatusCenterPage</t>
+  </si>
+  <si>
+    <t>Welcome to the Application Status Center</t>
+  </si>
+  <si>
+    <t>Page_header</t>
+  </si>
+  <si>
+    <t>Email_address</t>
+  </si>
+  <si>
+    <t>4_digit_ssn</t>
+  </si>
+  <si>
+    <t>9421</t>
+  </si>
+  <si>
+    <t>Note_message_header</t>
+  </si>
+  <si>
+    <t>Note_Paragraph</t>
+  </si>
+  <si>
+    <t>C28326_VerifyThatUserCanResetPassword</t>
+  </si>
+  <si>
+    <t>Didn’t receive your temporary password::Still no email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should receive an email from us with thin the next five minutes that includes your temporary password. Once you have your new password, log in as a Returning User. ::: Bummer. Make sure to check your junk folder in case our email was routed there by accident. :::For security purposes, we only allow one password reset request every 24 hours. If you need to  access your account sooner, please contact us at </t>
+  </si>
+  <si>
+    <t>C28328_VerifyThatPromotionalCodeFieldIsAvailableonConfirmAccountSelectionPage</t>
+  </si>
+  <si>
+    <t>56875665</t>
+  </si>
+  <si>
+    <t>C28364_VerifyTheLanguageOntheConfirmAccountPage</t>
+  </si>
+  <si>
+    <t>56875667</t>
+  </si>
+  <si>
+    <t>C28363_VerifyFAQregradingPromoCode</t>
+  </si>
+  <si>
+    <t>C28366_VerifyThankYouPageComponents</t>
+  </si>
+  <si>
+    <t>56875675</t>
+  </si>
+  <si>
+    <t>PageDisclaimer</t>
+  </si>
+  <si>
+    <t>IMPORTANT ACCOUNT OPENING INFORMATION</t>
+  </si>
+  <si>
+    <t>Sub_disclaimer_1</t>
+  </si>
+  <si>
+    <t>Sub_disclaimer_2</t>
+  </si>
+  <si>
+    <t>To help the government fight the funding of terrorism and money laundering activities, Federal law requires all financial institutions to obtain, verify and record information that identifies each person who opens an account.</t>
+  </si>
+  <si>
+    <t>C28369_VerifyMemberNumberInfoRemovedFromHomePage</t>
+  </si>
+  <si>
+    <t>When you open an account, we will ask for your name, address, date of birth, and other information that will allow us to identify you. We may also ask to see your driver’s license or other identifying documents.</t>
+  </si>
+  <si>
+    <t>45688744</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,6 +1836,11 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF151515"/>
+      <name val="Lato"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1733,7 +1863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1749,6 +1879,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2066,15 +2199,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView topLeftCell="B131" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152:D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="103" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2082,7 +2215,7 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2117,7 +2250,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2132,7 +2265,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +2280,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -2162,7 +2295,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2177,7 +2310,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2197,7 +2330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2217,7 +2350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2232,7 +2365,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2246,7 +2379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -2262,7 +2395,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2277,7 +2410,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -2292,7 +2425,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
@@ -2307,7 +2440,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -2322,7 +2455,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -2337,7 +2470,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>93</v>
       </c>
@@ -2352,7 +2485,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -2367,7 +2500,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2382,7 +2515,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2397,7 +2530,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -2412,7 +2545,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2427,7 +2560,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2442,7 +2575,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -2457,7 +2590,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2472,7 +2605,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -2487,7 +2620,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -2502,7 +2635,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -2517,7 +2650,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -2532,7 +2665,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>181</v>
       </c>
@@ -2547,7 +2680,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -2562,7 +2695,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -2577,7 +2710,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>210</v>
       </c>
@@ -2592,7 +2725,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -2607,7 +2740,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
         <v>235</v>
       </c>
@@ -2622,7 +2755,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>236</v>
       </c>
@@ -2637,7 +2770,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>237</v>
       </c>
@@ -2652,7 +2785,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -2667,7 +2800,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -2682,7 +2815,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -2697,7 +2830,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -2712,7 +2845,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>276</v>
       </c>
@@ -2727,7 +2860,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -2742,7 +2875,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>298</v>
       </c>
@@ -2757,7 +2890,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -2772,7 +2905,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>307</v>
       </c>
@@ -2787,7 +2920,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>312</v>
       </c>
@@ -2802,7 +2935,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>316</v>
       </c>
@@ -2817,7 +2950,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>317</v>
       </c>
@@ -2832,7 +2965,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>318</v>
       </c>
@@ -2847,7 +2980,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="6" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>319</v>
       </c>
@@ -2862,7 +2995,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="6" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>320</v>
       </c>
@@ -2877,7 +3010,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="6" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>321</v>
       </c>
@@ -2892,7 +3025,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="6" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>322</v>
       </c>
@@ -2907,7 +3040,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="6" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>323</v>
       </c>
@@ -2922,7 +3055,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="6" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>324</v>
       </c>
@@ -2937,7 +3070,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="6" customFormat="1">
       <c r="A57" s="6" t="s">
         <v>325</v>
       </c>
@@ -2952,7 +3085,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>326</v>
       </c>
@@ -2967,7 +3100,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>327</v>
       </c>
@@ -2982,7 +3115,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="6" customFormat="1">
       <c r="A60" s="6" t="s">
         <v>328</v>
       </c>
@@ -2997,7 +3130,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="6" customFormat="1">
       <c r="A61" s="6" t="s">
         <v>329</v>
       </c>
@@ -3013,7 +3146,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="6" customFormat="1">
       <c r="A62" s="6" t="s">
         <v>330</v>
       </c>
@@ -3029,7 +3162,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="6" customFormat="1">
       <c r="A63" s="6" t="s">
         <v>331</v>
       </c>
@@ -3044,7 +3177,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>332</v>
       </c>
@@ -3059,7 +3192,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>333</v>
       </c>
@@ -3074,7 +3207,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="6" customFormat="1">
       <c r="A66" s="6" t="s">
         <v>334</v>
       </c>
@@ -3090,7 +3223,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>335</v>
       </c>
@@ -3106,7 +3239,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="6" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>337</v>
       </c>
@@ -3121,7 +3254,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>338</v>
       </c>
@@ -3136,7 +3269,7 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>339</v>
       </c>
@@ -3151,7 +3284,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="6" customFormat="1">
       <c r="A71" s="6" t="s">
         <v>340</v>
       </c>
@@ -3166,7 +3299,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>342</v>
       </c>
@@ -3181,7 +3314,7 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="6" t="s">
         <v>343</v>
       </c>
@@ -3196,7 +3329,7 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="6" t="s">
         <v>344</v>
       </c>
@@ -3211,7 +3344,7 @@
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>345</v>
       </c>
@@ -3226,7 +3359,7 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>348</v>
       </c>
@@ -3242,7 +3375,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="6" t="s">
         <v>349</v>
       </c>
@@ -3258,7 +3391,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>350</v>
       </c>
@@ -3274,7 +3407,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="6" t="s">
         <v>354</v>
       </c>
@@ -3289,7 +3422,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>355</v>
       </c>
@@ -3304,7 +3437,7 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="6" t="s">
         <v>361</v>
       </c>
@@ -3319,7 +3452,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="6" t="s">
         <v>363</v>
       </c>
@@ -3334,7 +3467,7 @@
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="6" t="s">
         <v>365</v>
       </c>
@@ -3349,7 +3482,7 @@
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>366</v>
       </c>
@@ -3365,7 +3498,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>367</v>
       </c>
@@ -3381,7 +3514,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -3397,9 +3530,9 @@
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="6" customFormat="1">
       <c r="A87" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>8</v>
@@ -3413,7 +3546,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="6" t="s">
         <v>384</v>
       </c>
@@ -3429,7 +3562,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="6" t="s">
         <v>402</v>
       </c>
@@ -3445,7 +3578,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="6" t="s">
         <v>418</v>
       </c>
@@ -3461,7 +3594,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="6" t="s">
         <v>421</v>
       </c>
@@ -3476,7 +3609,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="6" t="s">
         <v>425</v>
       </c>
@@ -3491,9 +3624,9 @@
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>8</v>
@@ -3506,25 +3639,25 @@
       </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>439</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="B95" s="4" t="s">
         <v>8</v>
       </c>
@@ -3536,9 +3669,9 @@
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>8</v>
@@ -3551,9 +3684,9 @@
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>8</v>
@@ -3566,9 +3699,9 @@
       </c>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>8</v>
@@ -3581,9 +3714,9 @@
       </c>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>8</v>
@@ -3595,9 +3728,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>8</v>
@@ -3609,66 +3742,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
+        <v>484</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
         <v>486</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
         <v>488</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>492</v>
-      </c>
       <c r="B105" s="4" t="s">
         <v>8</v>
       </c>
@@ -3679,52 +3812,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>493</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
         <v>495</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="B108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
         <v>499</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>501</v>
-      </c>
       <c r="B109" s="4" t="s">
         <v>8</v>
       </c>
@@ -3735,52 +3868,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
         <v>504</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="B112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
         <v>508</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>510</v>
-      </c>
       <c r="B113" s="4" t="s">
         <v>8</v>
       </c>
@@ -3791,9 +3924,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="6" customFormat="1">
       <c r="A114" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>8</v>
@@ -3807,9 +3940,9 @@
       <c r="E114" s="2"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="6" customFormat="1">
       <c r="A115" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>8</v>
@@ -3823,9 +3956,9 @@
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="6" customFormat="1">
       <c r="A116" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>8</v>
@@ -3839,9 +3972,9 @@
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" s="6" customFormat="1">
       <c r="A117" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>8</v>
@@ -3855,9 +3988,9 @@
       <c r="E117" s="2"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="6" customFormat="1">
       <c r="A118" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>8</v>
@@ -3871,9 +4004,9 @@
       <c r="E118" s="2"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="6" customFormat="1">
       <c r="A119" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>8</v>
@@ -3887,9 +4020,9 @@
       <c r="E119" s="2"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="6" customFormat="1">
       <c r="A120" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>8</v>
@@ -3902,9 +4035,9 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="6" customFormat="1">
       <c r="A121" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>8</v>
@@ -3917,25 +4050,25 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="6" customFormat="1">
       <c r="A122" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" s="6" customFormat="1">
+      <c r="A123" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>527</v>
-      </c>
       <c r="B123" s="4" t="s">
         <v>8</v>
       </c>
@@ -3947,9 +4080,9 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="6" customFormat="1">
       <c r="A124" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>8</v>
@@ -3963,9 +4096,9 @@
       <c r="E124" s="2"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="6" customFormat="1">
       <c r="A125" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>8</v>
@@ -3979,217 +4112,399 @@
       <c r="E125" s="2"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="6" customFormat="1">
       <c r="A126" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" s="6" customFormat="1">
+      <c r="A127" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" s="6" customFormat="1">
+      <c r="A128" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="B128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" s="6" customFormat="1">
+      <c r="A129" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
         <v>532</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="B130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
         <v>533</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
         <v>534</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
         <v>535</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
         <v>536</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
         <v>537</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>538</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
         <v>539</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
         <v>540</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
         <v>541</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
         <v>542</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>543</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>544</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>545</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>548</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>549</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>551</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>553</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>563</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>571</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>576</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>578</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>579</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>586</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4332,23 +4647,123 @@
     <hyperlink ref="B137" r:id="rId135" xr:uid="{227D6EC0-3E69-4C63-8490-D680936C2EBA}"/>
     <hyperlink ref="B138" r:id="rId136" xr:uid="{D6EB93AB-F106-42A8-A3F8-56FE65DF5AE6}"/>
     <hyperlink ref="B139" r:id="rId137" xr:uid="{AF7E2B62-F415-4524-A30C-C8E451CA243F}"/>
-    <hyperlink ref="B140" r:id="rId138" xr:uid="{78CA4D0A-A9AC-4D8D-B4A9-8DA1B2285D29}"/>
+    <hyperlink ref="B140" r:id="rId138" xr:uid="{C45DB53F-5C33-4DB7-B186-E36BC409CB8F}"/>
+    <hyperlink ref="B141" r:id="rId139" xr:uid="{594F0C19-564C-44A4-A9C9-1F7A84AE608D}"/>
+    <hyperlink ref="B142" r:id="rId140" xr:uid="{B13B2783-38D2-458F-B8CB-76C287121DC5}"/>
+    <hyperlink ref="B143" r:id="rId141" xr:uid="{273E3631-30F0-4979-A3C3-B7192EE9EBC9}"/>
+    <hyperlink ref="B144" r:id="rId142" xr:uid="{C42689B1-5FC8-42A8-B322-21D79D3E6EC8}"/>
+    <hyperlink ref="B145" r:id="rId143" xr:uid="{78027349-D80C-4AD3-A808-2F6713D31663}"/>
+    <hyperlink ref="B146" r:id="rId144" xr:uid="{17FDB5AD-AF67-4ADE-9966-9096C2F0507F}"/>
+    <hyperlink ref="B147" r:id="rId145" xr:uid="{47B397E7-B784-44CB-B6A7-EAC61EA957B5}"/>
+    <hyperlink ref="B148" r:id="rId146" xr:uid="{96274AE7-3DD1-4649-905E-6B4ECE13BCBB}"/>
+    <hyperlink ref="B149" r:id="rId147" xr:uid="{1DA09280-D753-4782-8E01-13BB333B5571}"/>
+    <hyperlink ref="B150" r:id="rId148" xr:uid="{EFB4455D-54E8-4BE8-AB81-99D5384F9ABF}"/>
+    <hyperlink ref="B151" r:id="rId149" xr:uid="{95F9E398-2A1C-469B-8002-828BB72553D7}"/>
+    <hyperlink ref="B152" r:id="rId150" xr:uid="{D6201B87-BBEE-44B3-B7EE-1B3E3B7C2310}"/>
+    <hyperlink ref="B153" r:id="rId151" xr:uid="{FDBEBFC5-5335-494F-917C-A162EBD2A1FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId139"/>
+  <pageSetup orientation="portrait" r:id="rId152"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD357452-D04E-4E34-BBEA-FBA2531933C2}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7181748D-AD2C-48BB-B746-0A91746B9CE3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{49C5BEB0-68B1-4EB7-9832-2B40E497716D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE111"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="103" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4369,13 +4784,13 @@
     <col min="24" max="24" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="54.140625" customWidth="1"/>
     <col min="26" max="26" width="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="193.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4466,8 +4881,11 @@
       <c r="AD1" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4524,7 +4942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4541,7 +4959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -4558,7 +4976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -4581,7 +4999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -4598,7 +5016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="44.25" customHeight="1">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -4618,7 +5036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -4638,7 +5056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -4646,7 +5064,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -4666,7 +5084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -4686,7 +5104,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -4705,7 +5123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4720,7 +5138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
@@ -4731,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>105</v>
@@ -4788,7 +5206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -4799,7 +5217,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>105</v>
@@ -4856,7 +5274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -4873,7 +5291,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -4893,7 +5311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -4907,7 +5325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
@@ -4918,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>105</v>
@@ -4975,7 +5393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -4993,7 +5411,7 @@
       </c>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -5010,7 +5428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5027,7 +5445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="6" t="s">
         <v>101</v>
       </c>
@@ -5109,7 +5527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -5188,7 +5606,7 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -5268,7 +5686,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="1:30" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="6" customFormat="1" ht="33.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>316</v>
       </c>
@@ -5288,7 +5706,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>317</v>
       </c>
@@ -5347,7 +5765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="6" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>318</v>
       </c>
@@ -5361,7 +5779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
         <v>319</v>
       </c>
@@ -5375,7 +5793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>320</v>
       </c>
@@ -5395,7 +5813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="6" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>321</v>
       </c>
@@ -5442,7 +5860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="6" customFormat="1">
       <c r="A32" s="6" t="s">
         <v>322</v>
       </c>
@@ -5501,7 +5919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="6" customFormat="1">
       <c r="A33" s="6" t="s">
         <v>323</v>
       </c>
@@ -5515,7 +5933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="6" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>324</v>
       </c>
@@ -5574,7 +5992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>325</v>
       </c>
@@ -5600,7 +6018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>326</v>
       </c>
@@ -5659,7 +6077,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>327</v>
       </c>
@@ -5718,7 +6136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>328</v>
       </c>
@@ -5780,7 +6198,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>329</v>
       </c>
@@ -5830,7 +6248,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>330</v>
       </c>
@@ -5880,7 +6298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="6" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>331</v>
       </c>
@@ -5939,7 +6357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>332</v>
       </c>
@@ -5998,7 +6416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>333</v>
       </c>
@@ -6057,7 +6475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>334</v>
       </c>
@@ -6116,7 +6534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="6" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>335</v>
       </c>
@@ -6175,7 +6593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="6" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>337</v>
       </c>
@@ -6195,7 +6613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="6" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>340</v>
       </c>
@@ -6212,7 +6630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>338</v>
       </c>
@@ -6229,7 +6647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>339</v>
       </c>
@@ -6246,7 +6664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="13.5" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>342</v>
       </c>
@@ -6263,7 +6681,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -6325,7 +6743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
         <v>344</v>
       </c>
@@ -6387,7 +6805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30">
       <c r="A53" s="6" t="s">
         <v>345</v>
       </c>
@@ -6452,7 +6870,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30">
       <c r="A54" s="6" t="s">
         <v>348</v>
       </c>
@@ -6520,7 +6938,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
         <v>349</v>
       </c>
@@ -6588,7 +7006,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30">
       <c r="A56" s="6" t="s">
         <v>350</v>
       </c>
@@ -6656,7 +7074,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
         <v>354</v>
       </c>
@@ -6719,7 +7137,7 @@
       </c>
       <c r="AA57" s="6"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -6781,7 +7199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
         <v>361</v>
       </c>
@@ -6846,7 +7264,7 @@
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
         <v>363</v>
       </c>
@@ -6905,7 +7323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
         <v>365</v>
       </c>
@@ -6967,7 +7385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30">
       <c r="A62" s="6" t="s">
         <v>366</v>
       </c>
@@ -6981,7 +7399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
         <v>367</v>
       </c>
@@ -6995,7 +7413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30">
       <c r="A64" s="6" t="s">
         <v>368</v>
       </c>
@@ -7059,9 +7477,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>28</v>
@@ -7070,7 +7488,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>46</v>
@@ -7109,10 +7527,10 @@
         <v>34</v>
       </c>
       <c r="U65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="V65" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="W65" s="6"/>
       <c r="X65" s="7" t="s">
@@ -7125,9 +7543,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>28</v>
@@ -7136,7 +7554,7 @@
         <v>29</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>46</v>
@@ -7175,7 +7593,7 @@
         <v>34</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
@@ -7189,9 +7607,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>28</v>
@@ -7200,7 +7618,7 @@
         <v>29</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>46</v>
@@ -7239,10 +7657,10 @@
         <v>34</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W67" s="6"/>
       <c r="X67" s="7" t="s">
@@ -7255,9 +7673,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>28</v>
@@ -7266,7 +7684,7 @@
         <v>29</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>46</v>
@@ -7290,7 +7708,7 @@
         <v>357</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>358</v>
@@ -7305,10 +7723,10 @@
         <v>34</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="W68" s="6"/>
       <c r="X68" s="7" t="s">
@@ -7321,9 +7739,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>28</v>
@@ -7332,7 +7750,7 @@
         <v>29</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>46</v>
@@ -7356,7 +7774,7 @@
         <v>357</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>358</v>
@@ -7384,9 +7802,9 @@
       </c>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>28</v>
@@ -7395,7 +7813,7 @@
         <v>29</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>46</v>
@@ -7419,7 +7837,7 @@
         <v>357</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>358</v>
@@ -7446,9 +7864,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>28</v>
@@ -7457,7 +7875,7 @@
         <v>29</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>46</v>
@@ -7481,7 +7899,7 @@
         <v>357</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>358</v>
@@ -7496,7 +7914,7 @@
         <v>34</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="6"/>
@@ -7510,9 +7928,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>28</v>
@@ -7521,7 +7939,7 @@
         <v>29</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>46</v>
@@ -7545,7 +7963,7 @@
         <v>357</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>358</v>
@@ -7560,7 +7978,7 @@
         <v>34</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V72" s="2"/>
       <c r="W72" s="6"/>
@@ -7574,9 +7992,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>28</v>
@@ -7585,7 +8003,7 @@
         <v>29</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>46</v>
@@ -7609,7 +8027,7 @@
         <v>357</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>358</v>
@@ -7624,7 +8042,7 @@
         <v>34</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="6"/>
@@ -7638,9 +8056,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>28</v>
@@ -7649,7 +8067,7 @@
         <v>29</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>46</v>
@@ -7673,7 +8091,7 @@
         <v>357</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>358</v>
@@ -7688,7 +8106,7 @@
         <v>34</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="6"/>
@@ -7702,9 +8120,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>28</v>
@@ -7713,7 +8131,7 @@
         <v>29</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>46</v>
@@ -7737,7 +8155,7 @@
         <v>357</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>358</v>
@@ -7752,7 +8170,7 @@
         <v>34</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V75" s="2"/>
       <c r="W75" s="6"/>
@@ -7766,9 +8184,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>28</v>
@@ -7777,7 +8195,7 @@
         <v>29</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>46</v>
@@ -7801,7 +8219,7 @@
         <v>357</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>358</v>
@@ -7816,7 +8234,7 @@
         <v>34</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="6"/>
@@ -7830,9 +8248,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>28</v>
@@ -7841,7 +8259,7 @@
         <v>29</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>46</v>
@@ -7865,7 +8283,7 @@
         <v>357</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>358</v>
@@ -7880,7 +8298,7 @@
         <v>34</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V77" s="2"/>
       <c r="W77" s="6"/>
@@ -7894,9 +8312,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>28</v>
@@ -7905,7 +8323,7 @@
         <v>29</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>46</v>
@@ -7929,7 +8347,7 @@
         <v>357</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>358</v>
@@ -7944,7 +8362,7 @@
         <v>34</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V78" s="2"/>
       <c r="W78" s="6"/>
@@ -7958,9 +8376,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>28</v>
@@ -7969,7 +8387,7 @@
         <v>29</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>46</v>
@@ -7993,7 +8411,7 @@
         <v>357</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>358</v>
@@ -8008,7 +8426,7 @@
         <v>34</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V79" s="2"/>
       <c r="W79" s="6"/>
@@ -8022,9 +8440,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>28</v>
@@ -8033,7 +8451,7 @@
         <v>29</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>46</v>
@@ -8057,7 +8475,7 @@
         <v>357</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>358</v>
@@ -8072,7 +8490,7 @@
         <v>34</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V80" s="2"/>
       <c r="W80" s="6"/>
@@ -8086,9 +8504,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>28</v>
@@ -8097,7 +8515,7 @@
         <v>29</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>46</v>
@@ -8121,7 +8539,7 @@
         <v>357</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>358</v>
@@ -8136,7 +8554,7 @@
         <v>34</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V81" s="2"/>
       <c r="W81" s="6"/>
@@ -8150,9 +8568,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="6" customFormat="1">
       <c r="A82" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>28</v>
@@ -8161,10 +8579,10 @@
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>35</v>
@@ -8209,9 +8627,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>28</v>
@@ -8220,10 +8638,10 @@
         <v>29</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>35</v>
@@ -8268,9 +8686,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>28</v>
@@ -8279,10 +8697,10 @@
         <v>29</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>35</v>
@@ -8327,9 +8745,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" s="6" customFormat="1">
       <c r="A85" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>28</v>
@@ -8338,10 +8756,10 @@
         <v>29</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>35</v>
@@ -8386,9 +8804,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>28</v>
@@ -8397,10 +8815,10 @@
         <v>29</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>35</v>
@@ -8445,9 +8863,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>28</v>
@@ -8456,10 +8874,10 @@
         <v>29</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>35</v>
@@ -8504,9 +8922,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="6" customFormat="1">
       <c r="A88" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>28</v>
@@ -8515,10 +8933,10 @@
         <v>29</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>35</v>
@@ -8563,9 +8981,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="6" customFormat="1">
       <c r="A89" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>28</v>
@@ -8574,10 +8992,10 @@
         <v>29</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>35</v>
@@ -8622,9 +9040,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>28</v>
@@ -8633,10 +9051,10 @@
         <v>29</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>35</v>
@@ -8681,9 +9099,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>28</v>
@@ -8692,10 +9110,10 @@
         <v>29</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>35</v>
@@ -8740,9 +9158,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>28</v>
@@ -8751,10 +9169,10 @@
         <v>29</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>35</v>
@@ -8799,9 +9217,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>28</v>
@@ -8810,10 +9228,10 @@
         <v>29</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>35</v>
@@ -8858,9 +9276,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="6" customFormat="1">
       <c r="A94" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>28</v>
@@ -8869,10 +9287,10 @@
         <v>29</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>35</v>
@@ -8917,9 +9335,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="6" customFormat="1">
       <c r="A95" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>28</v>
@@ -8928,10 +9346,10 @@
         <v>29</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>35</v>
@@ -8976,9 +9394,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>28</v>
@@ -8987,10 +9405,10 @@
         <v>29</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>35</v>
@@ -9035,9 +9453,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>28</v>
@@ -9046,10 +9464,10 @@
         <v>29</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>35</v>
@@ -9094,9 +9512,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>28</v>
@@ -9105,10 +9523,10 @@
         <v>29</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>35</v>
@@ -9153,9 +9571,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>28</v>
@@ -9164,10 +9582,10 @@
         <v>29</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>35</v>
@@ -9212,9 +9630,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" s="6" customFormat="1">
       <c r="A100" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>28</v>
@@ -9223,10 +9641,10 @@
         <v>29</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>35</v>
@@ -9271,9 +9689,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" s="6" customFormat="1">
       <c r="A101" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>28</v>
@@ -9282,10 +9700,10 @@
         <v>29</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>35</v>
@@ -9330,9 +9748,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>28</v>
@@ -9341,10 +9759,10 @@
         <v>29</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>547</v>
+        <v>56</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>35</v>
@@ -9359,29 +9777,27 @@
         <v>42</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>41</v>
+        <v>544</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>357</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>358</v>
+        <v>545</v>
       </c>
       <c r="R102" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S102" s="6" t="s">
-        <v>356</v>
+      <c r="S102" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="T102" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U102" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="U102" s="2"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="7" t="s">
@@ -9394,13 +9810,536 @@
         <v>82</v>
       </c>
     </row>
+    <row r="103" spans="1:31">
+      <c r="A103" t="s">
+        <v>547</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y103" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z103" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
+      <c r="A104" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U104" s="2"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y104" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z104" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
+      <c r="A105" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U105" s="2"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y105" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z105" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
+      <c r="A106" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U106" s="2"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z106" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
+      <c r="A107" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T107" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
+      <c r="A108" t="s">
+        <v>555</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T108" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
+      <c r="A109" t="s">
+        <v>574</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="AE109" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
+      <c r="A110" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U110" s="6"/>
+    </row>
+    <row r="111" spans="1:31">
+      <c r="A111" t="s">
+        <v>579</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE111" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S102" r:id="rId1" xr:uid="{F371BD80-5669-4853-851A-82712007E820}"/>
+    <hyperlink ref="S103" r:id="rId2" xr:uid="{BEE0A138-2C1D-425C-87DE-8ABDC07B8BA6}"/>
+    <hyperlink ref="S104" r:id="rId3" xr:uid="{BB02CF50-90FC-4C40-B952-0DF0F5ED2E0C}"/>
+    <hyperlink ref="S105" r:id="rId4" xr:uid="{878D5BC4-656B-4ED1-AB31-987E46E2594E}"/>
+    <hyperlink ref="S106" r:id="rId5" xr:uid="{59859151-C0CF-4EA6-812B-9964F59A3F94}"/>
+    <hyperlink ref="S107" r:id="rId6" xr:uid="{95873862-68F8-4640-A30C-ECC753AAF49F}"/>
+    <hyperlink ref="S108" r:id="rId7" xr:uid="{68112E65-98BF-4F0F-B34B-26C400A37517}"/>
+    <hyperlink ref="S109" r:id="rId8" xr:uid="{3FED822B-A866-41C0-820B-95A5EF5D2C08}"/>
+    <hyperlink ref="S110" r:id="rId9" xr:uid="{9E6340EB-D4C8-4605-B9BB-161D57EBD0FA}"/>
+    <hyperlink ref="S111" r:id="rId10" xr:uid="{4824B1C4-79BA-436E-93A8-31B164D74736}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -9408,7 +10347,7 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -9416,7 +10355,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9442,7 +10381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -9459,7 +10398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -9478,22 +10417,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9612,7 +10549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
         <v>111</v>
       </c>
@@ -9713,7 +10650,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="6" t="s">
         <v>175</v>
       </c>
@@ -9742,7 +10679,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="6" t="s">
         <v>181</v>
       </c>
@@ -9825,7 +10762,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
         <v>201</v>
       </c>
@@ -9857,7 +10794,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="6" t="s">
         <v>205</v>
       </c>
@@ -9919,7 +10856,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="6" t="s">
         <v>210</v>
       </c>
@@ -9969,7 +10906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="6" t="s">
         <v>223</v>
       </c>
@@ -9986,7 +10923,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="6" t="s">
         <v>235</v>
       </c>
@@ -10045,7 +10982,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="6" t="s">
         <v>236</v>
       </c>
@@ -10071,7 +11008,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="A11" s="6" t="s">
         <v>237</v>
       </c>
@@ -10100,7 +11037,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="6" t="s">
         <v>244</v>
       </c>
@@ -10129,7 +11066,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="6" t="s">
         <v>252</v>
       </c>
@@ -10185,7 +11122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="6" t="s">
         <v>259</v>
       </c>
@@ -10253,7 +11190,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="6" t="s">
         <v>266</v>
       </c>
@@ -10294,7 +11231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="6" t="s">
         <v>276</v>
       </c>
@@ -10338,7 +11275,7 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34">
       <c r="A17" s="6" t="s">
         <v>282</v>
       </c>
@@ -10385,7 +11322,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34">
       <c r="A18" s="6" t="s">
         <v>298</v>
       </c>
@@ -10441,7 +11378,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" s="6" t="s">
         <v>299</v>
       </c>
@@ -10512,7 +11449,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34">
       <c r="A20" s="6" t="s">
         <v>307</v>
       </c>
@@ -10553,7 +11490,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34">
       <c r="A21" s="6" t="s">
         <v>312</v>
       </c>
@@ -10587,15 +11524,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="6"/>
@@ -10622,11 +11559,11 @@
     <col min="28" max="28" width="20.85546875" style="6" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="22.140625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="29.7109375" style="6" customWidth="1"/>
+    <col min="31" max="31" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10720,8 +11657,11 @@
       <c r="AE1" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>384</v>
       </c>
@@ -10797,8 +11737,11 @@
       <c r="AA2" s="9" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="6" t="s">
         <v>402</v>
       </c>
@@ -10809,7 +11752,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>403</v>
@@ -10886,8 +11829,11 @@
       <c r="AE3" s="9" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>418</v>
       </c>
@@ -10936,8 +11882,11 @@
       <c r="R4" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="6" t="s">
         <v>421</v>
       </c>
@@ -10948,7 +11897,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>431</v>
+        <v>560</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>422</v>
@@ -10989,8 +11938,11 @@
       <c r="S5" s="9" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>425</v>
       </c>
@@ -11001,7 +11953,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>432</v>
+        <v>588</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>426</v>
@@ -11042,16 +11994,19 @@
       <c r="S6" s="9" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -11060,10 +12015,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>35</v>
@@ -11096,15 +12051,15 @@
         <v>391</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="B8" s="6">
         <v>500</v>
@@ -11119,10 +12074,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>35</v>
@@ -11155,45 +12110,45 @@
         <v>391</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>104</v>
       </c>
       <c r="U8" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="W8" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="Y8" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>211</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -11202,10 +12157,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>35</v>
@@ -11238,21 +12193,21 @@
         <v>391</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>468</v>
-      </c>
       <c r="B10" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -11261,10 +12216,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>35</v>
@@ -11297,21 +12252,21 @@
         <v>391</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
@@ -11320,10 +12275,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>35</v>
@@ -11356,26 +12311,76 @@
         <v>391</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>104</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="V11" s="6">
         <v>1000</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C16BBF-19E6-4C8B-9072-1F5646C3351D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8D109-5A0F-49A0-8DA8-335D8F0DFBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="589">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1805,7 +1799,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1945,7 +1939,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1997,7 +1991,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2191,18 +2185,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="B131" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152:D153"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4510,157 +4504,157 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B87" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B134" r:id="rId132" xr:uid="{3FC154CB-CBC9-42FC-8547-6FFA9A2A7AA7}"/>
-    <hyperlink ref="B135" r:id="rId133" xr:uid="{CEDFB980-178F-48C3-A8F0-ACB55C53284F}"/>
-    <hyperlink ref="B136" r:id="rId134" xr:uid="{4758C07C-1D3D-4A49-B96C-71A47CF9CE8B}"/>
-    <hyperlink ref="B137" r:id="rId135" xr:uid="{227D6EC0-3E69-4C63-8490-D680936C2EBA}"/>
-    <hyperlink ref="B138" r:id="rId136" xr:uid="{D6EB93AB-F106-42A8-A3F8-56FE65DF5AE6}"/>
-    <hyperlink ref="B139" r:id="rId137" xr:uid="{AF7E2B62-F415-4524-A30C-C8E451CA243F}"/>
-    <hyperlink ref="B140" r:id="rId138" xr:uid="{C45DB53F-5C33-4DB7-B186-E36BC409CB8F}"/>
-    <hyperlink ref="B141" r:id="rId139" xr:uid="{594F0C19-564C-44A4-A9C9-1F7A84AE608D}"/>
-    <hyperlink ref="B142" r:id="rId140" xr:uid="{B13B2783-38D2-458F-B8CB-76C287121DC5}"/>
-    <hyperlink ref="B143" r:id="rId141" xr:uid="{273E3631-30F0-4979-A3C3-B7192EE9EBC9}"/>
-    <hyperlink ref="B144" r:id="rId142" xr:uid="{C42689B1-5FC8-42A8-B322-21D79D3E6EC8}"/>
-    <hyperlink ref="B145" r:id="rId143" xr:uid="{78027349-D80C-4AD3-A808-2F6713D31663}"/>
-    <hyperlink ref="B146" r:id="rId144" xr:uid="{17FDB5AD-AF67-4ADE-9966-9096C2F0507F}"/>
-    <hyperlink ref="B147" r:id="rId145" xr:uid="{47B397E7-B784-44CB-B6A7-EAC61EA957B5}"/>
-    <hyperlink ref="B148" r:id="rId146" xr:uid="{96274AE7-3DD1-4649-905E-6B4ECE13BCBB}"/>
-    <hyperlink ref="B149" r:id="rId147" xr:uid="{1DA09280-D753-4782-8E01-13BB333B5571}"/>
-    <hyperlink ref="B150" r:id="rId148" xr:uid="{EFB4455D-54E8-4BE8-AB81-99D5384F9ABF}"/>
-    <hyperlink ref="B151" r:id="rId149" xr:uid="{95F9E398-2A1C-469B-8002-828BB72553D7}"/>
-    <hyperlink ref="B152" r:id="rId150" xr:uid="{D6201B87-BBEE-44B3-B7EE-1B3E3B7C2310}"/>
-    <hyperlink ref="B153" r:id="rId151" xr:uid="{FDBEBFC5-5335-494F-917C-A162EBD2A1FF}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57"/>
+    <hyperlink ref="B60" r:id="rId58"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62"/>
+    <hyperlink ref="B65" r:id="rId63"/>
+    <hyperlink ref="B66" r:id="rId64"/>
+    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B68" r:id="rId66"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B74" r:id="rId72"/>
+    <hyperlink ref="B75" r:id="rId73"/>
+    <hyperlink ref="B76" r:id="rId74"/>
+    <hyperlink ref="B77" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77"/>
+    <hyperlink ref="B80" r:id="rId78"/>
+    <hyperlink ref="B81" r:id="rId79"/>
+    <hyperlink ref="B82" r:id="rId80"/>
+    <hyperlink ref="B83" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83"/>
+    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B88" r:id="rId85"/>
+    <hyperlink ref="B89" r:id="rId86"/>
+    <hyperlink ref="B90" r:id="rId87"/>
+    <hyperlink ref="B91" r:id="rId88"/>
+    <hyperlink ref="B92" r:id="rId89"/>
+    <hyperlink ref="B87" r:id="rId90"/>
+    <hyperlink ref="B93" r:id="rId91"/>
+    <hyperlink ref="B94" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
+    <hyperlink ref="B97" r:id="rId95"/>
+    <hyperlink ref="B98" r:id="rId96"/>
+    <hyperlink ref="B99" r:id="rId97"/>
+    <hyperlink ref="B100" r:id="rId98"/>
+    <hyperlink ref="B101" r:id="rId99"/>
+    <hyperlink ref="B102" r:id="rId100"/>
+    <hyperlink ref="B103" r:id="rId101"/>
+    <hyperlink ref="B104" r:id="rId102"/>
+    <hyperlink ref="B105" r:id="rId103"/>
+    <hyperlink ref="B106" r:id="rId104"/>
+    <hyperlink ref="B107" r:id="rId105"/>
+    <hyperlink ref="B108" r:id="rId106"/>
+    <hyperlink ref="B109" r:id="rId107"/>
+    <hyperlink ref="B110" r:id="rId108"/>
+    <hyperlink ref="B111" r:id="rId109"/>
+    <hyperlink ref="B112" r:id="rId110"/>
+    <hyperlink ref="B113" r:id="rId111"/>
+    <hyperlink ref="B114" r:id="rId112"/>
+    <hyperlink ref="B115" r:id="rId113"/>
+    <hyperlink ref="B116" r:id="rId114"/>
+    <hyperlink ref="B117" r:id="rId115"/>
+    <hyperlink ref="B118" r:id="rId116"/>
+    <hyperlink ref="B119" r:id="rId117"/>
+    <hyperlink ref="B120" r:id="rId118"/>
+    <hyperlink ref="B121" r:id="rId119"/>
+    <hyperlink ref="B122" r:id="rId120"/>
+    <hyperlink ref="B123" r:id="rId121"/>
+    <hyperlink ref="B124" r:id="rId122"/>
+    <hyperlink ref="B125" r:id="rId123"/>
+    <hyperlink ref="B126" r:id="rId124"/>
+    <hyperlink ref="B127" r:id="rId125"/>
+    <hyperlink ref="B128" r:id="rId126"/>
+    <hyperlink ref="B129" r:id="rId127"/>
+    <hyperlink ref="B130" r:id="rId128"/>
+    <hyperlink ref="B131" r:id="rId129"/>
+    <hyperlink ref="B132" r:id="rId130"/>
+    <hyperlink ref="B133" r:id="rId131"/>
+    <hyperlink ref="B134" r:id="rId132"/>
+    <hyperlink ref="B135" r:id="rId133"/>
+    <hyperlink ref="B136" r:id="rId134"/>
+    <hyperlink ref="B137" r:id="rId135"/>
+    <hyperlink ref="B138" r:id="rId136"/>
+    <hyperlink ref="B139" r:id="rId137"/>
+    <hyperlink ref="B140" r:id="rId138"/>
+    <hyperlink ref="B141" r:id="rId139"/>
+    <hyperlink ref="B142" r:id="rId140"/>
+    <hyperlink ref="B143" r:id="rId141"/>
+    <hyperlink ref="B144" r:id="rId142"/>
+    <hyperlink ref="B145" r:id="rId143"/>
+    <hyperlink ref="B146" r:id="rId144"/>
+    <hyperlink ref="B147" r:id="rId145"/>
+    <hyperlink ref="B148" r:id="rId146"/>
+    <hyperlink ref="B149" r:id="rId147"/>
+    <hyperlink ref="B150" r:id="rId148"/>
+    <hyperlink ref="B151" r:id="rId149"/>
+    <hyperlink ref="B152" r:id="rId150"/>
+    <hyperlink ref="B153" r:id="rId151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId152"/>
@@ -4668,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD357452-D04E-4E34-BBEA-FBA2531933C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4746,8 +4740,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7181748D-AD2C-48BB-B746-0A91746B9CE3}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{49C5BEB0-68B1-4EB7-9832-2B40E497716D}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4755,12 +4749,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4787,7 +4781,8 @@
     <col min="27" max="27" width="14.5703125" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.140625" customWidth="1"/>
+    <col min="30" max="30" width="195.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1">
@@ -5204,6 +5199,9 @@
       </c>
       <c r="Z14" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6647,7 +6645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="6" customFormat="1">
+    <row r="49" spans="1:31" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>339</v>
       </c>
@@ -6664,7 +6662,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="13.5" customHeight="1">
+    <row r="50" spans="1:31" ht="13.5" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>342</v>
       </c>
@@ -6681,7 +6679,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -6743,7 +6741,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
         <v>344</v>
       </c>
@@ -6805,7 +6803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31">
       <c r="A53" s="6" t="s">
         <v>345</v>
       </c>
@@ -6869,8 +6867,11 @@
       <c r="AD53" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="6" t="s">
         <v>348</v>
       </c>
@@ -6937,8 +6938,11 @@
       <c r="AD54" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
         <v>349</v>
       </c>
@@ -7005,8 +7009,11 @@
       <c r="AD55" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="6" t="s">
         <v>350</v>
       </c>
@@ -7074,7 +7081,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
         <v>354</v>
       </c>
@@ -7137,7 +7144,7 @@
       </c>
       <c r="AA57" s="6"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -7199,7 +7206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
         <v>361</v>
       </c>
@@ -7263,8 +7270,11 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
         <v>363</v>
       </c>
@@ -7323,7 +7333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
         <v>365</v>
       </c>
@@ -7385,7 +7395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:31">
       <c r="A62" s="6" t="s">
         <v>366</v>
       </c>
@@ -7399,7 +7409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
         <v>367</v>
       </c>
@@ -7413,7 +7423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:31">
       <c r="A64" s="6" t="s">
         <v>368</v>
       </c>
@@ -8504,7 +8514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:31">
       <c r="A81" s="6" t="s">
         <v>508</v>
       </c>
@@ -8568,7 +8578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="6" customFormat="1">
+    <row r="82" spans="1:31" s="6" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>513</v>
       </c>
@@ -8626,8 +8636,11 @@
       <c r="Z82" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" s="6" customFormat="1">
+      <c r="AE82" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>514</v>
       </c>
@@ -8685,8 +8698,11 @@
       <c r="Z83" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" s="6" customFormat="1">
+      <c r="AE83" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>515</v>
       </c>
@@ -8745,7 +8761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="6" customFormat="1">
+    <row r="85" spans="1:31" s="6" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>516</v>
       </c>
@@ -8803,8 +8819,11 @@
       <c r="Z85" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" s="6" customFormat="1">
+      <c r="AE85" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>517</v>
       </c>
@@ -8862,8 +8881,11 @@
       <c r="Z86" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" s="6" customFormat="1">
+      <c r="AE86" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>518</v>
       </c>
@@ -8922,7 +8944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="6" customFormat="1">
+    <row r="88" spans="1:31" s="6" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>519</v>
       </c>
@@ -8981,7 +9003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="6" customFormat="1">
+    <row r="89" spans="1:31" s="6" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>520</v>
       </c>
@@ -9040,7 +9062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="6" customFormat="1">
+    <row r="90" spans="1:31" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>523</v>
       </c>
@@ -9099,7 +9121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="6" customFormat="1">
+    <row r="91" spans="1:31" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>525</v>
       </c>
@@ -9158,7 +9180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="6" customFormat="1">
+    <row r="92" spans="1:31" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>526</v>
       </c>
@@ -9217,7 +9239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="6" customFormat="1">
+    <row r="93" spans="1:31" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>527</v>
       </c>
@@ -9276,7 +9298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="6" customFormat="1">
+    <row r="94" spans="1:31" s="6" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>528</v>
       </c>
@@ -9334,8 +9356,11 @@
       <c r="Z94" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" s="6" customFormat="1">
+      <c r="AE94" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" s="6" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>529</v>
       </c>
@@ -9394,7 +9419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="6" customFormat="1">
+    <row r="96" spans="1:31" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>530</v>
       </c>
@@ -9451,6 +9476,9 @@
       </c>
       <c r="Z96" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="AE96" s="6" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:31" s="6" customFormat="1">
@@ -9570,6 +9598,9 @@
       <c r="Z98" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="AE98" s="6" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="99" spans="1:31" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
@@ -9628,6 +9659,9 @@
       </c>
       <c r="Z99" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="AE99" s="6" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="100" spans="1:31" s="6" customFormat="1">
@@ -10323,16 +10357,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S102" r:id="rId1" xr:uid="{F371BD80-5669-4853-851A-82712007E820}"/>
-    <hyperlink ref="S103" r:id="rId2" xr:uid="{BEE0A138-2C1D-425C-87DE-8ABDC07B8BA6}"/>
-    <hyperlink ref="S104" r:id="rId3" xr:uid="{BB02CF50-90FC-4C40-B952-0DF0F5ED2E0C}"/>
-    <hyperlink ref="S105" r:id="rId4" xr:uid="{878D5BC4-656B-4ED1-AB31-987E46E2594E}"/>
-    <hyperlink ref="S106" r:id="rId5" xr:uid="{59859151-C0CF-4EA6-812B-9964F59A3F94}"/>
-    <hyperlink ref="S107" r:id="rId6" xr:uid="{95873862-68F8-4640-A30C-ECC753AAF49F}"/>
-    <hyperlink ref="S108" r:id="rId7" xr:uid="{68112E65-98BF-4F0F-B34B-26C400A37517}"/>
-    <hyperlink ref="S109" r:id="rId8" xr:uid="{3FED822B-A866-41C0-820B-95A5EF5D2C08}"/>
-    <hyperlink ref="S110" r:id="rId9" xr:uid="{9E6340EB-D4C8-4605-B9BB-161D57EBD0FA}"/>
-    <hyperlink ref="S111" r:id="rId10" xr:uid="{4824B1C4-79BA-436E-93A8-31B164D74736}"/>
+    <hyperlink ref="S102" r:id="rId1"/>
+    <hyperlink ref="S103" r:id="rId2"/>
+    <hyperlink ref="S104" r:id="rId3"/>
+    <hyperlink ref="S105" r:id="rId4"/>
+    <hyperlink ref="S106" r:id="rId5"/>
+    <hyperlink ref="S107" r:id="rId6"/>
+    <hyperlink ref="S108" r:id="rId7"/>
+    <hyperlink ref="S109" r:id="rId8"/>
+    <hyperlink ref="S110" r:id="rId9"/>
+    <hyperlink ref="S111" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -10340,7 +10374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10418,7 +10452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11525,10 +11559,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -12336,7 +12370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C16BBF-19E6-4C8B-9072-1F5646C3351D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266E28E-3223-48E9-A898-1238EE6298ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationStatusCenter" sheetId="6" r:id="rId2"/>
     <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="DNA_Upgrade" sheetId="3" r:id="rId4"/>
-    <sheet name="ProdData" sheetId="4" r:id="rId5"/>
-    <sheet name="DataTwo" sheetId="5" r:id="rId6"/>
-    <sheet name="HomePage" sheetId="7" r:id="rId7"/>
+    <sheet name="Miscellaneous" sheetId="8" r:id="rId4"/>
+    <sheet name="DNA_Upgrade" sheetId="3" r:id="rId5"/>
+    <sheet name="ProdData" sheetId="4" r:id="rId6"/>
+    <sheet name="DataTwo" sheetId="5" r:id="rId7"/>
+    <sheet name="HomePage" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="597">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1794,12 +1801,36 @@
   </si>
   <si>
     <t>45688744</t>
+  </si>
+  <si>
+    <t>C28355_VerifyDisclouserStepIsHighLightedWhenUserOnIdentityVerification</t>
+  </si>
+  <si>
+    <t>56875658</t>
+  </si>
+  <si>
+    <t>C28357_VerifyDisclouserStepIsHighLightedWhenUserOnAgreementsAndDisclouserPage</t>
+  </si>
+  <si>
+    <t>C28359_VerifyThatDisclousertabIsHighlightedWhenUserDeclineTheAgreement</t>
+  </si>
+  <si>
+    <t>C28361_VerifyThatFundingStepIsHighlightedWhenUserOnAccountFundingPage</t>
+  </si>
+  <si>
+    <t>TC001_ValidateTheAditionalLinkAndShowAllFesturedUnderCDSection</t>
+  </si>
+  <si>
+    <t>TC002_ValidateTheAdditionalLinksPresentOnMemberEligibilityPage</t>
+  </si>
+  <si>
+    <t>56875677</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1939,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1991,7 +2022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2185,18 +2216,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView topLeftCell="B140" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158:D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4502,167 +4533,257 @@
         <v>7</v>
       </c>
     </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>594</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>595</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B74" r:id="rId72"/>
-    <hyperlink ref="B75" r:id="rId73"/>
-    <hyperlink ref="B76" r:id="rId74"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B88" r:id="rId85"/>
-    <hyperlink ref="B89" r:id="rId86"/>
-    <hyperlink ref="B90" r:id="rId87"/>
-    <hyperlink ref="B91" r:id="rId88"/>
-    <hyperlink ref="B92" r:id="rId89"/>
-    <hyperlink ref="B87" r:id="rId90"/>
-    <hyperlink ref="B93" r:id="rId91"/>
-    <hyperlink ref="B94" r:id="rId92"/>
-    <hyperlink ref="B95" r:id="rId93"/>
-    <hyperlink ref="B96" r:id="rId94"/>
-    <hyperlink ref="B97" r:id="rId95"/>
-    <hyperlink ref="B98" r:id="rId96"/>
-    <hyperlink ref="B99" r:id="rId97"/>
-    <hyperlink ref="B100" r:id="rId98"/>
-    <hyperlink ref="B101" r:id="rId99"/>
-    <hyperlink ref="B102" r:id="rId100"/>
-    <hyperlink ref="B103" r:id="rId101"/>
-    <hyperlink ref="B104" r:id="rId102"/>
-    <hyperlink ref="B105" r:id="rId103"/>
-    <hyperlink ref="B106" r:id="rId104"/>
-    <hyperlink ref="B107" r:id="rId105"/>
-    <hyperlink ref="B108" r:id="rId106"/>
-    <hyperlink ref="B109" r:id="rId107"/>
-    <hyperlink ref="B110" r:id="rId108"/>
-    <hyperlink ref="B111" r:id="rId109"/>
-    <hyperlink ref="B112" r:id="rId110"/>
-    <hyperlink ref="B113" r:id="rId111"/>
-    <hyperlink ref="B114" r:id="rId112"/>
-    <hyperlink ref="B115" r:id="rId113"/>
-    <hyperlink ref="B116" r:id="rId114"/>
-    <hyperlink ref="B117" r:id="rId115"/>
-    <hyperlink ref="B118" r:id="rId116"/>
-    <hyperlink ref="B119" r:id="rId117"/>
-    <hyperlink ref="B120" r:id="rId118"/>
-    <hyperlink ref="B121" r:id="rId119"/>
-    <hyperlink ref="B122" r:id="rId120"/>
-    <hyperlink ref="B123" r:id="rId121"/>
-    <hyperlink ref="B124" r:id="rId122"/>
-    <hyperlink ref="B125" r:id="rId123"/>
-    <hyperlink ref="B126" r:id="rId124"/>
-    <hyperlink ref="B127" r:id="rId125"/>
-    <hyperlink ref="B128" r:id="rId126"/>
-    <hyperlink ref="B129" r:id="rId127"/>
-    <hyperlink ref="B130" r:id="rId128"/>
-    <hyperlink ref="B131" r:id="rId129"/>
-    <hyperlink ref="B132" r:id="rId130"/>
-    <hyperlink ref="B133" r:id="rId131"/>
-    <hyperlink ref="B134" r:id="rId132"/>
-    <hyperlink ref="B135" r:id="rId133"/>
-    <hyperlink ref="B136" r:id="rId134"/>
-    <hyperlink ref="B137" r:id="rId135"/>
-    <hyperlink ref="B138" r:id="rId136"/>
-    <hyperlink ref="B139" r:id="rId137"/>
-    <hyperlink ref="B140" r:id="rId138"/>
-    <hyperlink ref="B141" r:id="rId139"/>
-    <hyperlink ref="B142" r:id="rId140"/>
-    <hyperlink ref="B143" r:id="rId141"/>
-    <hyperlink ref="B144" r:id="rId142"/>
-    <hyperlink ref="B145" r:id="rId143"/>
-    <hyperlink ref="B146" r:id="rId144"/>
-    <hyperlink ref="B147" r:id="rId145"/>
-    <hyperlink ref="B148" r:id="rId146"/>
-    <hyperlink ref="B149" r:id="rId147"/>
-    <hyperlink ref="B150" r:id="rId148"/>
-    <hyperlink ref="B151" r:id="rId149"/>
-    <hyperlink ref="B152" r:id="rId150"/>
-    <hyperlink ref="B153" r:id="rId151"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B87" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B153" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B154" r:id="rId152" xr:uid="{F9B42C70-9C06-4811-B4E5-5F12A2041DFF}"/>
+    <hyperlink ref="B155" r:id="rId153" xr:uid="{FB19BEB6-4E77-4501-A64A-7C8FE7264617}"/>
+    <hyperlink ref="B156" r:id="rId154" xr:uid="{66B4BD23-2638-473E-B97A-2A99F6BF8261}"/>
+    <hyperlink ref="B157" r:id="rId155" xr:uid="{42C89DEB-6E22-4CCD-986E-A09636AC697D}"/>
+    <hyperlink ref="B158" r:id="rId156" xr:uid="{6AF4CA40-A106-4EEF-AEA6-17826A20C19F}"/>
+    <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId152"/>
+  <pageSetup orientation="portrait" r:id="rId158"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4740,8 +4861,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4749,12 +4870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10355,26 +10476,451 @@
         <v>558</v>
       </c>
     </row>
+    <row r="112" spans="1:31" s="6" customFormat="1">
+      <c r="A112" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE112" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
+      <c r="A113" t="s">
+        <v>591</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
+      <c r="A114" t="s">
+        <v>592</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" s="6" customFormat="1">
+      <c r="A115" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X115" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y115" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z115" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE115" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S102" r:id="rId1"/>
-    <hyperlink ref="S103" r:id="rId2"/>
-    <hyperlink ref="S104" r:id="rId3"/>
-    <hyperlink ref="S105" r:id="rId4"/>
-    <hyperlink ref="S106" r:id="rId5"/>
-    <hyperlink ref="S107" r:id="rId6"/>
-    <hyperlink ref="S108" r:id="rId7"/>
-    <hyperlink ref="S109" r:id="rId8"/>
-    <hyperlink ref="S110" r:id="rId9"/>
-    <hyperlink ref="S111" r:id="rId10"/>
+    <hyperlink ref="S102" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="S103" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="S104" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="S105" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="S106" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="S107" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="S108" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="S109" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="S110" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="S111" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="S112" r:id="rId11" xr:uid="{DF7B14E4-8213-4A5F-AF26-BA81B4495527}"/>
+    <hyperlink ref="S113" r:id="rId12" xr:uid="{85B6BC87-1724-4C07-A2C8-086BC4C676E1}"/>
+    <hyperlink ref="S114" r:id="rId13" xr:uid="{348F2698-E65A-4B4C-9C4A-8D971F97E312}"/>
+    <hyperlink ref="S115" r:id="rId14" xr:uid="{2C7775BE-2D15-4E90-87DD-AF2B85FF4A01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA266BC-709C-4DEE-8391-B55B5482C45E}">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10451,8 +10997,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11558,8 +12104,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12369,8 +12915,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\TDECU\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266E28E-3223-48E9-A898-1238EE6298ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B8245-3011-4961-A223-5B1C207C26EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="599">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1825,6 +1825,12 @@
   </si>
   <si>
     <t>56875677</t>
+  </si>
+  <si>
+    <t>C26854_VerifyCheckingSavingsAndCDsSection</t>
+  </si>
+  <si>
+    <t>C26856_Verify_HelpModal_HomePage</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView topLeftCell="B140" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158:D159"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4614,6 +4620,34 @@
         <v>5</v>
       </c>
       <c r="D159" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>597</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>598</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4776,9 +4810,11 @@
     <hyperlink ref="B157" r:id="rId155" xr:uid="{42C89DEB-6E22-4CCD-986E-A09636AC697D}"/>
     <hyperlink ref="B158" r:id="rId156" xr:uid="{6AF4CA40-A106-4EEF-AEA6-17826A20C19F}"/>
     <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
+    <hyperlink ref="B160" r:id="rId158" xr:uid="{A5786DE6-087D-4CEC-8CB8-7DD728DC50C0}"/>
+    <hyperlink ref="B162" r:id="rId159" xr:uid="{B88C4656-4950-4237-858B-8C3B64A7B110}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId158"/>
+  <pageSetup orientation="portrait" r:id="rId160"/>
 </worksheet>
 </file>
 
@@ -10743,7 +10779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA266BC-709C-4DEE-8391-B55B5482C45E}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -12917,10 +12953,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12959,6 +12995,9 @@
         <v>587</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditip\Documents\reference\tdecu\projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266E28E-3223-48E9-A898-1238EE6298ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6516782C-4825-400D-9593-6B8301924409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="599">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1825,6 +1825,12 @@
   </si>
   <si>
     <t>56875677</t>
+  </si>
+  <si>
+    <t>C26855_VerifyLoanCreditCardCriteriaDetails</t>
+  </si>
+  <si>
+    <t>C26859_ValidateFAQs</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="B140" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158:D159"/>
+    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4614,6 +4620,34 @@
         <v>5</v>
       </c>
       <c r="D159" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>597</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>598</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4776,9 +4810,11 @@
     <hyperlink ref="B157" r:id="rId155" xr:uid="{42C89DEB-6E22-4CCD-986E-A09636AC697D}"/>
     <hyperlink ref="B158" r:id="rId156" xr:uid="{6AF4CA40-A106-4EEF-AEA6-17826A20C19F}"/>
     <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
+    <hyperlink ref="B161" r:id="rId158" xr:uid="{417855FD-24EE-4E1C-9604-26AFC759CA19}"/>
+    <hyperlink ref="B164" r:id="rId159" xr:uid="{9DD31311-E28D-44B1-A51D-A77E5C446678}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId158"/>
+  <pageSetup orientation="portrait" r:id="rId160"/>
 </worksheet>
 </file>
 
@@ -10743,7 +10779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA266BC-709C-4DEE-8391-B55B5482C45E}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditip\Documents\reference\tdecu\projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6516782C-4825-400D-9593-6B8301924409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C3D18-E65B-42E5-A293-907125F452F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="612">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1831,6 +1831,48 @@
   </si>
   <si>
     <t>C26859_ValidateFAQs</t>
+  </si>
+  <si>
+    <t>FAQ question</t>
+  </si>
+  <si>
+    <t>FAQ answers</t>
+  </si>
+  <si>
+    <t>FAQ bullets Q1</t>
+  </si>
+  <si>
+    <t>Q1 hyperlink1</t>
+  </si>
+  <si>
+    <t>Q1 hyperlink2</t>
+  </si>
+  <si>
+    <t>Q4 hyperlink1</t>
+  </si>
+  <si>
+    <t>https://www.tdecu.org/tdecu-field-of-membership-by-company-and-organization/</t>
+  </si>
+  <si>
+    <t>https://www.tdecu.org/rates/</t>
+  </si>
+  <si>
+    <t>Who is eligible to become a TDECU Member?;Will TDECU check my credit when I apply for an account online;Does TDECU offer refinance options?;Where can I see the latest rates for your loans, credit cards and CDs?;I received a promo code. Can I use the code when applying online?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To apply online, you must be 18 or over and meet one of the following criteria:;Yes. To open an account online, you must authorize TDECU to obtain a credit report for credit review and evaluation purposes.;Yes! We offer refinance options for auto, boat, motorcycle and RV/ camper loans. You will see these listed as an option when selecting the products you want to add to your application.;All of our current rates and fees can be viewed here.;As long as the promotional offer is valid for online applications, you can enter your promo code using this process. Once you reach the Confirm Selected Products and Services page, you will see a field to enter your promo code.
+				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a family member of a current TDECU Member;You are an employee, retiree or family member of an employee of a company TDECU serves;You are a member of an organization TDECU serves;You live, work, worship or attend school in one of the following Texas counties:	
+		</t>
+  </si>
+  <si>
+    <t>Country list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+;Bastrop		;Collin	;Fort Bend	;Hays		;Montgomery ;Bexar		;Comal	;Galveston	;Jackson	;	Refugio ;Blanco		;Dallas	;Goliad		;Kendall	;	Tarrant ;Brazoria	;Denton	;Gonzales	;Lavaca		;Travis ;Caldwell	;DeWitt	;Guadalupe	;Lee		;	Victoria ;Calhoun		;Fayette;Harris		;Matagorda	;Williamson</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1913,6 +1955,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2230,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164:D164"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4623,31 +4668,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
         <v>597</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+      <c r="B170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
         <v>598</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="6" t="s">
+      <c r="B171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4810,8 +4855,8 @@
     <hyperlink ref="B157" r:id="rId155" xr:uid="{42C89DEB-6E22-4CCD-986E-A09636AC697D}"/>
     <hyperlink ref="B158" r:id="rId156" xr:uid="{6AF4CA40-A106-4EEF-AEA6-17826A20C19F}"/>
     <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
-    <hyperlink ref="B161" r:id="rId158" xr:uid="{417855FD-24EE-4E1C-9604-26AFC759CA19}"/>
-    <hyperlink ref="B164" r:id="rId159" xr:uid="{9DD31311-E28D-44B1-A51D-A77E5C446678}"/>
+    <hyperlink ref="B170" r:id="rId158" xr:uid="{417855FD-24EE-4E1C-9604-26AFC759CA19}"/>
+    <hyperlink ref="B171" r:id="rId159" xr:uid="{9DD31311-E28D-44B1-A51D-A77E5C446678}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId160"/>
@@ -12144,7 +12189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -12953,21 +12998,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="78.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11" ht="45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12980,8 +13028,29 @@
       <c r="D1" s="6" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="75" customHeight="1">
+      <c r="E1" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>586</v>
       </c>
@@ -12995,8 +13064,42 @@
         <v>587</v>
       </c>
     </row>
+    <row r="4" spans="1:11" ht="409.5">
+      <c r="A4" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="F7" s="14"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{0DECCD08-632D-4186-B9CD-B8B029EA8C31}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{FCE38939-F6FD-47E3-B4CB-2BFE31B9E7CE}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{C5635D0B-D036-4D3C-BB8B-640413D971F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\TDECU\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B8245-3011-4961-A223-5B1C207C26EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D339F16F-6C6F-48CB-AC40-FEE15656AD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ProdData" sheetId="4" r:id="rId6"/>
     <sheet name="DataTwo" sheetId="5" r:id="rId7"/>
     <sheet name="HomePage" sheetId="7" r:id="rId8"/>
+    <sheet name="HomePage_Data" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="611">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1831,13 +1832,49 @@
   </si>
   <si>
     <t>C26856_Verify_HelpModal_HomePage</t>
+  </si>
+  <si>
+    <t>C26858_Verify_Thumbnail_HorizontallyDisplayedHomePage</t>
+  </si>
+  <si>
+    <t>C26860_Verify_StandardDisclaimer_HomePage</t>
+  </si>
+  <si>
+    <t>C23961_Verify_NonMember_RegistrationFormValidation</t>
+  </si>
+  <si>
+    <t>Primary Applicant Information</t>
+  </si>
+  <si>
+    <t>QA_Ashish_</t>
+  </si>
+  <si>
+    <t>Shukla_</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestW@emailaddress.com</t>
+  </si>
+  <si>
+    <t>(800)  839-1154</t>
+  </si>
+  <si>
+    <t>C24291_VerifyCourtesyPayOption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1872,6 +1909,13 @@
       <color rgb="FF151515"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1894,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1915,6 +1959,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2230,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4648,6 +4697,62 @@
         <v>5</v>
       </c>
       <c r="D162" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>599</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>600</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>601</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>610</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4812,9 +4917,13 @@
     <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
     <hyperlink ref="B160" r:id="rId158" xr:uid="{A5786DE6-087D-4CEC-8CB8-7DD728DC50C0}"/>
     <hyperlink ref="B162" r:id="rId159" xr:uid="{B88C4656-4950-4237-858B-8C3B64A7B110}"/>
+    <hyperlink ref="B163" r:id="rId160" xr:uid="{361C7460-04D6-4995-8C98-D37BD534224E}"/>
+    <hyperlink ref="B165" r:id="rId161" xr:uid="{B396CB91-CA01-4EDC-9E64-6F68FC829D3F}"/>
+    <hyperlink ref="B166" r:id="rId162" xr:uid="{6112E321-2B5C-458B-8B69-EA037E40FF14}"/>
+    <hyperlink ref="B167" r:id="rId163" xr:uid="{16604E5A-DCA8-4226-8AFA-B79AD4A08261}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId160"/>
+  <pageSetup orientation="portrait" r:id="rId164"/>
 </worksheet>
 </file>
 
@@ -4907,11 +5016,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10753,6 +10862,11 @@
         <v>558</v>
       </c>
     </row>
+    <row r="116" spans="1:31">
+      <c r="A116" t="s">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S102" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -10780,15 +10894,41 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="175.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1">
@@ -12142,10 +12282,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12945,6 +13085,86 @@
         <v>473</v>
       </c>
     </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12956,7 +13176,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12965,6 +13185,7 @@
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12995,6 +13216,20 @@
         <v>587</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="75.75">
+      <c r="A3" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
     <row r="5" spans="1:4">
       <c r="B5" s="12"/>
     </row>
@@ -13002,4 +13237,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0711F2-1B22-4B93-A02D-E2BC0231967E}">
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="9" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" display="mailto:TestW@emailaddress.com" xr:uid="{EA6F4A22-163B-4E81-877C-C02FF484E208}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\TDECU\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\Lavanya\TDECU Projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D339F16F-6C6F-48CB-AC40-FEE15656AD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E714F7-181C-4AB9-BA84-61CAEF0878F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="612">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1868,6 +1868,9 @@
   </si>
   <si>
     <t>C24291_VerifyCourtesyPayOption</t>
+  </si>
+  <si>
+    <t>51411589</t>
   </si>
 </sst>
 </file>
@@ -1959,11 +1962,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12285,7 +12288,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:AF12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13096,7 +13099,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>429</v>
+        <v>611</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>385</v>
@@ -13289,11 +13292,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
@@ -13419,10 +13422,10 @@
       <c r="L2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -13431,13 +13434,13 @@
       <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -13446,7 +13449,7 @@
       <c r="U2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="15" t="s">
         <v>608</v>
       </c>
       <c r="W2" s="9" t="s">

--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\Lavanya\TDECU Projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E714F7-181C-4AB9-BA84-61CAEF0878F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052DDAE-EF68-4B91-BFC9-50CB89A7969B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="615">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1871,6 +1871,15 @@
   </si>
   <si>
     <t>51411589</t>
+  </si>
+  <si>
+    <t>C24321_NonMemberUserCanSeeTheAssignedRoleToTheBeneficiary</t>
+  </si>
+  <si>
+    <t>ConfirmAccountRoles</t>
+  </si>
+  <si>
+    <t>This application has multiple individuals. By default all individuals have roles on accounts on the application. To remove an individual from one or more accounts you can un-check the account for that individual.</t>
   </si>
 </sst>
 </file>
@@ -2282,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4756,6 +4765,20 @@
         <v>5</v>
       </c>
       <c r="D167" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>612</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4924,9 +4947,10 @@
     <hyperlink ref="B165" r:id="rId161" xr:uid="{B396CB91-CA01-4EDC-9E64-6F68FC829D3F}"/>
     <hyperlink ref="B166" r:id="rId162" xr:uid="{6112E321-2B5C-458B-8B69-EA037E40FF14}"/>
     <hyperlink ref="B167" r:id="rId163" xr:uid="{16604E5A-DCA8-4226-8AFA-B79AD4A08261}"/>
+    <hyperlink ref="B168" r:id="rId164" xr:uid="{F7CCC421-26CE-40DD-8A46-67E3A214002A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId164"/>
+  <pageSetup orientation="portrait" r:id="rId165"/>
 </worksheet>
 </file>
 
@@ -5019,11 +5043,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE116"/>
+  <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5052,9 +5076,10 @@
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="195.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1">
+    <row r="1" spans="1:32" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5148,8 +5173,11 @@
       <c r="AE1" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5206,7 +5234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -5223,7 +5251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="6" customFormat="1">
+    <row r="4" spans="1:32" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -5240,7 +5268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="6" customFormat="1">
+    <row r="5" spans="1:32" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -5263,7 +5291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -5280,7 +5308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="44.25" customHeight="1">
+    <row r="7" spans="1:32" ht="44.25" customHeight="1">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5300,7 +5328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -5320,7 +5348,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -5328,7 +5356,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -5348,7 +5376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5368,7 +5396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -5387,7 +5415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
@@ -5473,7 +5501,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -5541,7 +5569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -10677,7 +10705,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
         <v>591</v>
       </c>
@@ -10740,7 +10768,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
         <v>592</v>
       </c>
@@ -10803,7 +10831,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="115" spans="1:31" s="6" customFormat="1">
+    <row r="115" spans="1:32" s="6" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>593</v>
       </c>
@@ -10865,9 +10893,85 @@
         <v>558</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
         <v>601</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32">
+      <c r="A117" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S117" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="V117" s="2"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y117" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z117" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
+      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
+      <c r="AF117" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -11095,6 +11199,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11173,6 +11278,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12287,7 +12393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -13170,7 +13276,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13464,6 +13570,6 @@
     <hyperlink ref="V2" r:id="rId1" display="mailto:TestW@emailaddress.com" xr:uid="{EA6F4A22-163B-4E81-877C-C02FF484E208}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditip\Documents\reference\tdecu\projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C3D18-E65B-42E5-A293-907125F452F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8793B44-D0B8-4865-8C6A-F312EF83E939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="ProdData" sheetId="4" r:id="rId6"/>
     <sheet name="DataTwo" sheetId="5" r:id="rId7"/>
     <sheet name="HomePage" sheetId="7" r:id="rId8"/>
+    <sheet name="HomePage_Data" sheetId="9" r:id="rId9"/>
+    <sheet name="StaticUIdata" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="645">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1873,13 +1875,116 @@
   <si>
     <t xml:space="preserve">
 ;Bastrop		;Collin	;Fort Bend	;Hays		;Montgomery ;Bexar		;Comal	;Galveston	;Jackson	;	Refugio ;Blanco		;Dallas	;Goliad		;Kendall	;	Tarrant ;Brazoria	;Denton	;Gonzales	;Lavaca		;Travis ;Caldwell	;DeWitt	;Guadalupe	;Lee		;	Victoria ;Calhoun		;Fayette;Harris		;Matagorda	;Williamson</t>
+  </si>
+  <si>
+    <t>C23861_NonMemberWouldLikeToConfirmAccountSelection</t>
+  </si>
+  <si>
+    <t>Primary Applicant Information</t>
+  </si>
+  <si>
+    <t>C23961_Verify_NonMember_RegistrationFormValidation</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>QA_Ashish_</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Shukla_</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestW@emailaddress.com</t>
+  </si>
+  <si>
+    <t>QA_Aditi</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Are You Ready to Experience the TDECU Difference?</t>
+  </si>
+  <si>
+    <t>NewApplicantFormHeader</t>
+  </si>
+  <si>
+    <t>NewAccountPageHeader</t>
+  </si>
+  <si>
+    <t>AgreementPageHeader</t>
+  </si>
+  <si>
+    <t>Account Agreements and Disclosures</t>
+  </si>
+  <si>
+    <t>AgreementDeclineMessage</t>
+  </si>
+  <si>
+    <t>We Cannot Process Your Application
+We are sorry that you have elected to decline the disclosures we must provide you to open your accounts.
+We cannot process this application any further without your consent to these disclosures.
+If you are interested in proceeding, please contact TDECU by calling (800) 839-1154, ext. 6013
+If you wish to reconsider, please select the Back button to return to the application. Thank you!</t>
+  </si>
+  <si>
+    <t>Please accept the disclosures</t>
+  </si>
+  <si>
+    <t>FAQCourtesyPaySection</t>
+  </si>
+  <si>
+    <t>What Are the Standard Overdraft Practices That Come With My Account?;What Fees Will I Be Charged If TDECU Pays My Overdraft?</t>
+  </si>
+  <si>
+    <t>CourtesyPaySectionNote</t>
+  </si>
+  <si>
+    <t>Courtesy Pay will be activated after your checking account has been open for 60 days and if the account is in good standing. Please see the Account Information Brochure for more information regarding Courtesy Pay.</t>
+  </si>
+  <si>
+    <t>BackupWithHoldingError</t>
+  </si>
+  <si>
+    <t>ResidentCheckError</t>
+  </si>
+  <si>
+    <t>Are you a US Citizen or a Non-Resident Alien.</t>
+  </si>
+  <si>
+    <t>ToAcceptAgreementError</t>
+  </si>
+  <si>
+    <t>AgreementSignatureError</t>
+  </si>
+  <si>
+    <t>C23861_NonMemberWouldLi222</t>
+  </si>
+  <si>
+    <t>C238_NonMemberWouldLikeToConfirmAccoun11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1914,6 +2019,13 @@
       <color rgb="FF151515"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1936,7 +2048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1959,6 +2071,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2275,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4693,6 +4810,20 @@
         <v>5</v>
       </c>
       <c r="D171" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>612</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4857,9 +4988,126 @@
     <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
     <hyperlink ref="B170" r:id="rId158" xr:uid="{417855FD-24EE-4E1C-9604-26AFC759CA19}"/>
     <hyperlink ref="B171" r:id="rId159" xr:uid="{9DD31311-E28D-44B1-A51D-A77E5C446678}"/>
+    <hyperlink ref="B172" r:id="rId160" xr:uid="{606E84C5-738B-47EF-B904-72B2D4BC9519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId160"/>
+  <pageSetup orientation="portrait" r:id="rId161"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE86F9D-A791-48A1-84A8-C4D7199B32A7}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="165">
+      <c r="A7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>642</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4867,8 +5115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4954,9 +5202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView topLeftCell="O1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10825,7 +11073,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11005,7 +11253,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12189,8 +12437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13000,7 +13248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -13102,4 +13350,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF62BA9-5B13-4791-9C3A-79C000FA5E51}">
+  <dimension ref="A1:AL5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="6" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="9" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" display="mailto:TestW@emailaddress.com" xr:uid="{8D9C519E-0A1A-4D05-9C03-4CD0E68E92D2}"/>
+    <hyperlink ref="V3" r:id="rId2" display="mailto:TestW@emailaddress.com" xr:uid="{1E9AB4E7-7D3C-4C15-80DD-E25F99D657F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\Lavanya\TDECU Projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditip\Documents\reference\tdecu\projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052DDAE-EF68-4B91-BFC9-50CB89A7969B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D2124-5BBF-4918-9C2D-FCA0C9AE41CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="DataTwo" sheetId="5" r:id="rId7"/>
     <sheet name="HomePage" sheetId="7" r:id="rId8"/>
     <sheet name="HomePage_Data" sheetId="10" r:id="rId9"/>
+    <sheet name="StaticUIdata" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="653">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1880,6 +1881,127 @@
   </si>
   <si>
     <t>This application has multiple individuals. By default all individuals have roles on accounts on the application. To remove an individual from one or more accounts you can un-check the account for that individual.</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Are You Ready to Experience the TDECU Difference?</t>
+  </si>
+  <si>
+    <t>NewAccountPageHeader</t>
+  </si>
+  <si>
+    <t>NewApplicantFormHeader</t>
+  </si>
+  <si>
+    <t>AgreementPageHeader</t>
+  </si>
+  <si>
+    <t>Account Agreements and Disclosures</t>
+  </si>
+  <si>
+    <t>AgreementDeclineMessage</t>
+  </si>
+  <si>
+    <t>We Cannot Process Your Application
+We are sorry that you have elected to decline the disclosures we must provide you to open your accounts.
+We cannot process this application any further without your consent to these disclosures.
+If you are interested in proceeding, please contact TDECU by calling (800) 839-1154, ext. 6013
+If you wish to reconsider, please select the Back button to return to the application. Thank you!</t>
+  </si>
+  <si>
+    <t>ToAcceptAgreementError</t>
+  </si>
+  <si>
+    <t>Please accept the disclosures</t>
+  </si>
+  <si>
+    <t>FAQCourtesyPaySection</t>
+  </si>
+  <si>
+    <t>What Are the Standard Overdraft Practices That Come With My Account?;What Fees Will I Be Charged If TDECU Pays My Overdraft?</t>
+  </si>
+  <si>
+    <t>CourtesyPaySectionNote</t>
+  </si>
+  <si>
+    <t>Courtesy Pay will be activated after your checking account has been open for 60 days and if the account is in good standing. Please see the Account Information Brochure for more information regarding Courtesy Pay.</t>
+  </si>
+  <si>
+    <t>BackupWithHoldingError</t>
+  </si>
+  <si>
+    <t>ResidentCheckError</t>
+  </si>
+  <si>
+    <t>Are you a US Citizen or a Non-Resident Alien.</t>
+  </si>
+  <si>
+    <t>AgreementSignatureError</t>
+  </si>
+  <si>
+    <t>C23861_NonMemberWouldLikeToConfirmAccountSelection</t>
+  </si>
+  <si>
+    <t>QA_Aditi</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>C26859_ValidateFAQs</t>
+  </si>
+  <si>
+    <t>Who is eligible to become a TDECU Member?;Will TDECU check my credit when I apply for an account online;Does TDECU offer refinance options?;Where can I see the latest rates for your loans, credit cards and CDs?;I received a promo code. Can I use the code when applying online?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To apply online, you must be 18 or over and meet one of the following criteria:;Yes. To open an account online, you must authorize TDECU to obtain a credit report for credit review and evaluation purposes.;Yes! We offer refinance options for auto, boat, motorcycle and RV/ camper loans. You will see these listed as an option when selecting the products you want to add to your application.;All of our current rates and fees can be viewed here.;As long as the promotional offer is valid for online applications, you can enter your promo code using this process. Once you reach the Confirm Selected Products and Services page, you will see a field to enter your promo code.
+				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a family member of a current TDECU Member;You are an employee, retiree or family member of an employee of a company TDECU serves;You are a member of an organization TDECU serves;You live, work, worship or attend school in one of the following Texas counties:	
+		</t>
+  </si>
+  <si>
+    <t>https://www.tdecu.org/tdecu-field-of-membership-by-company-and-organization/</t>
+  </si>
+  <si>
+    <t>https://www.tdecu.org/rates/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+;Bastrop		;Collin	;Fort Bend	;Hays		;Montgomery ;Bexar		;Comal	;Galveston	;Jackson	;	Refugio ;Blanco		;Dallas	;Goliad		;Kendall	;	Tarrant ;Brazoria	;Denton	;Gonzales	;Lavaca		;Travis ;Caldwell	;DeWitt	;Guadalupe	;Lee		;	Victoria ;Calhoun		;Fayette;Harris		;Matagorda	;Williamson</t>
+  </si>
+  <si>
+    <t>FAQ question</t>
+  </si>
+  <si>
+    <t>FAQ answers</t>
+  </si>
+  <si>
+    <t>FAQ bullets Q1</t>
+  </si>
+  <si>
+    <t>Q1 hyperlink1</t>
+  </si>
+  <si>
+    <t>Q1 hyperlink2</t>
+  </si>
+  <si>
+    <t>Q4 hyperlink1</t>
+  </si>
+  <si>
+    <t>Country list</t>
+  </si>
+  <si>
+    <t>C26855_VerifyLoanCreditCardCriteriaDetails</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1975,6 +2097,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2291,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4698,9 +4823,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>598</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>8</v>
@@ -4714,7 +4853,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>8</v>
@@ -4723,12 +4862,26 @@
         <v>5</v>
       </c>
       <c r="D163" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>601</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>8</v>
@@ -4742,7 +4895,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>8</v>
@@ -4754,31 +4907,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>610</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>612</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="6" t="s">
+    <row r="170" spans="1:4" s="6" customFormat="1">
+      <c r="A170" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="6" customFormat="1">
+      <c r="A171" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="6" customFormat="1">
+      <c r="A172" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4942,15 +5109,135 @@
     <hyperlink ref="B158" r:id="rId156" xr:uid="{6AF4CA40-A106-4EEF-AEA6-17826A20C19F}"/>
     <hyperlink ref="B159" r:id="rId157" xr:uid="{66AD87C8-A0D0-4637-8947-ABE537676215}"/>
     <hyperlink ref="B160" r:id="rId158" xr:uid="{A5786DE6-087D-4CEC-8CB8-7DD728DC50C0}"/>
-    <hyperlink ref="B162" r:id="rId159" xr:uid="{B88C4656-4950-4237-858B-8C3B64A7B110}"/>
-    <hyperlink ref="B163" r:id="rId160" xr:uid="{361C7460-04D6-4995-8C98-D37BD534224E}"/>
-    <hyperlink ref="B165" r:id="rId161" xr:uid="{B396CB91-CA01-4EDC-9E64-6F68FC829D3F}"/>
-    <hyperlink ref="B166" r:id="rId162" xr:uid="{6112E321-2B5C-458B-8B69-EA037E40FF14}"/>
-    <hyperlink ref="B167" r:id="rId163" xr:uid="{16604E5A-DCA8-4226-8AFA-B79AD4A08261}"/>
-    <hyperlink ref="B168" r:id="rId164" xr:uid="{F7CCC421-26CE-40DD-8A46-67E3A214002A}"/>
+    <hyperlink ref="B161" r:id="rId159" xr:uid="{B88C4656-4950-4237-858B-8C3B64A7B110}"/>
+    <hyperlink ref="B162" r:id="rId160" xr:uid="{361C7460-04D6-4995-8C98-D37BD534224E}"/>
+    <hyperlink ref="B163" r:id="rId161" xr:uid="{B396CB91-CA01-4EDC-9E64-6F68FC829D3F}"/>
+    <hyperlink ref="B164" r:id="rId162" xr:uid="{6112E321-2B5C-458B-8B69-EA037E40FF14}"/>
+    <hyperlink ref="B165" r:id="rId163" xr:uid="{16604E5A-DCA8-4226-8AFA-B79AD4A08261}"/>
+    <hyperlink ref="B166" r:id="rId164" xr:uid="{F7CCC421-26CE-40DD-8A46-67E3A214002A}"/>
+    <hyperlink ref="B170" r:id="rId165" xr:uid="{7B6E403F-729C-439A-97AD-C0C9CC58664F}"/>
+    <hyperlink ref="B171" r:id="rId166" xr:uid="{9525E404-AF08-4F6B-AC1F-A270014C9C70}"/>
+    <hyperlink ref="B172" r:id="rId167" xr:uid="{14D6191A-904B-4C5E-B8EC-DE4E98EB32D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId165"/>
+  <pageSetup orientation="portrait" r:id="rId168"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51B116F-53E2-4EF7-82D0-3E085C833531}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="165">
+      <c r="A7" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5045,7 +5332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
@@ -13282,10 +13569,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13297,7 +13584,7 @@
     <col min="5" max="5" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11" ht="45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13310,8 +13597,29 @@
       <c r="D1" s="6" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="75" customHeight="1">
+      <c r="E1" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>586</v>
       </c>
@@ -13325,7 +13633,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75.75">
+    <row r="3" spans="1:11" ht="75.75">
       <c r="A3" s="6" t="s">
         <v>600</v>
       </c>
@@ -13339,21 +13647,52 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="409.5">
+      <c r="A4" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{88FE02A3-D60D-4846-9F3F-51B9A517CB49}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{4FE5B105-FAD3-4B4E-8B7B-20EDE9E2A25F}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{50B2252C-3AF5-440D-954F-3D395524C386}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0711F2-1B22-4B93-A02D-E2BC0231967E}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13394,7 +13733,7 @@
     <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:38">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13494,7 +13833,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1">
+    <row r="2" spans="1:38" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>601</v>
       </c>
@@ -13561,6 +13900,90 @@
       <c r="W2" s="9" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="3" spans="1:38" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13568,8 +13991,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" display="mailto:TestW@emailaddress.com" xr:uid="{EA6F4A22-163B-4E81-877C-C02FF484E208}"/>
+    <hyperlink ref="V3" r:id="rId2" display="mailto:TestW@emailaddress.com" xr:uid="{E7FB07D7-ACB9-41B4-BBB1-9E5175E379C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
+++ b/InstantOpen_NewMember/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditip\Documents\reference\tdecu\projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CorpData\Lavanya\TDECU Projects\TDECUProjects\InstantOpen_NewMember\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D2124-5BBF-4918-9C2D-FCA0C9AE41CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD99CE1-A0F3-48EF-AE1E-4784EB4E6D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,25 @@
     <sheet name="HomePage_Data" sheetId="10" r:id="rId9"/>
     <sheet name="StaticUIdata" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="654">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2002,6 +2010,9 @@
   </si>
   <si>
     <t>C26855_VerifyLoanCreditCardCriteriaDetails</t>
+  </si>
+  <si>
+    <t>1132888</t>
   </si>
 </sst>
 </file>
@@ -2095,11 +2106,11 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2418,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
@@ -5332,9 +5343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11200,7 +11211,7 @@
         <v>29</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>496</v>
+        <v>653</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>46</v>
@@ -13660,13 +13671,13 @@
       <c r="G4" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>643</v>
       </c>
       <c r="K4" s="12" t="s">
@@ -13737,11 +13748,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
